--- a/rekap-baru/2022-08.xlsx
+++ b/rekap-baru/2022-08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19950" windowHeight="8295" activeTab="2"/>
+    <workbookView windowWidth="19950" windowHeight="8295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2 putra" sheetId="3" r:id="rId1"/>
@@ -304,10 +304,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -339,32 +339,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,25 +362,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,7 +386,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +425,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,6 +453,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -454,30 +477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +511,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,25 +631,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,121 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,11 +771,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,6 +791,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,16 +830,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -834,32 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -871,146 +871,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2365,8 +2365,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2472,10 +2472,12 @@
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17">
+        <v>73</v>
+      </c>
       <c r="G6" s="18">
         <f t="shared" ref="G6:G13" si="0">(F6-E6+20)/20</f>
-        <v>1</v>
+        <v>4.65</v>
       </c>
       <c r="H6" s="19" t="str">
         <f t="shared" ref="H6:H13" si="1">IF(G6&gt;=1,"","Kejar Target")</f>
@@ -2493,10 +2495,12 @@
       <c r="C7" s="19"/>
       <c r="D7" s="32"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17">
+        <v>72</v>
+      </c>
       <c r="G7" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H7" s="19" t="str">
         <f t="shared" si="1"/>
@@ -2514,10 +2518,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17">
+        <v>111</v>
+      </c>
       <c r="G8" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6.55</v>
       </c>
       <c r="H8" s="19" t="str">
         <f t="shared" si="1"/>
@@ -2535,10 +2541,12 @@
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>110</v>
+      </c>
       <c r="G9" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H9" s="19" t="str">
         <f t="shared" si="1"/>
@@ -2556,10 +2564,12 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>115</v>
+      </c>
       <c r="G10" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6.75</v>
       </c>
       <c r="H10" s="19" t="str">
         <f t="shared" si="1"/>
@@ -2577,10 +2587,12 @@
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>98</v>
+      </c>
       <c r="G11" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H11" s="19" t="str">
         <f t="shared" si="1"/>
@@ -2619,10 +2631,12 @@
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17">
+        <v>135</v>
+      </c>
       <c r="G13" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7.75</v>
       </c>
       <c r="H13" s="19" t="str">
         <f t="shared" si="1"/>
@@ -2732,7 +2746,7 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3101,7 +3115,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3207,10 +3221,12 @@
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17">
+        <v>272</v>
+      </c>
       <c r="G6" s="18">
         <f t="shared" ref="G6:G11" si="0">(F6-E6+20)/20</f>
-        <v>1</v>
+        <v>14.6</v>
       </c>
       <c r="H6" s="19" t="str">
         <f t="shared" ref="H6:H11" si="1">IF(G6&gt;=1,"","Kejar Target")</f>
@@ -3228,10 +3244,12 @@
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17">
+        <v>220</v>
+      </c>
       <c r="G7" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H7" s="19" t="str">
         <f t="shared" si="1"/>
@@ -3249,10 +3267,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17">
+        <v>134</v>
+      </c>
       <c r="G8" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7.7</v>
       </c>
       <c r="H8" s="19" t="str">
         <f t="shared" si="1"/>
@@ -3270,10 +3290,12 @@
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17">
+        <v>152</v>
+      </c>
       <c r="G9" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="H9" s="19" t="str">
         <f t="shared" si="1"/>
@@ -3291,10 +3313,12 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17">
+        <v>321</v>
+      </c>
       <c r="G10" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17.05</v>
       </c>
       <c r="H10" s="19" t="str">
         <f t="shared" si="1"/>
@@ -3312,10 +3336,12 @@
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17">
+        <v>78</v>
+      </c>
       <c r="G11" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H11" s="19" t="str">
         <f t="shared" si="1"/>
